--- a/Data/CTL_parameters.xlsx
+++ b/Data/CTL_parameters.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18444" windowHeight="9384" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18444" windowHeight="9384" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="APRU" sheetId="1" r:id="rId1"/>
@@ -683,8 +683,8 @@
   <dimension ref="A1:R70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -932,7 +932,7 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.5</v>
+        <v>0.71759099999999998</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -1100,7 +1100,7 @@
         <v>2</v>
       </c>
       <c r="F8">
-        <v>0.5</v>
+        <v>0.44845200000000002</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4594,8 +4594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4843,7 +4843,7 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.5</v>
+        <v>0.80683499999999997</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -5011,7 +5011,7 @@
         <v>2</v>
       </c>
       <c r="F8">
-        <v>0.5</v>
+        <v>0.39214500000000002</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -8505,8 +8505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R91"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="F82" sqref="F82:F85"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8810,7 +8810,7 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <v>0.5</v>
+        <v>0.65577099999999999</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -9034,7 +9034,7 @@
         <v>2</v>
       </c>
       <c r="F10">
-        <v>0.5</v>
+        <v>0.55211699999999997</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -13589,8 +13589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R70"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13838,7 +13838,7 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.5</v>
+        <v>0.69151600000000002</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -14006,7 +14006,7 @@
         <v>2</v>
       </c>
       <c r="F8">
-        <v>0.5</v>
+        <v>0.50270599999999999</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -17499,8 +17499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R70"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E55" sqref="E55"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17749,7 +17749,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="5">
-        <v>0.5</v>
+        <v>0.74682199999999999</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -17917,7 +17917,7 @@
         <v>2</v>
       </c>
       <c r="F8" s="5">
-        <v>0.5</v>
+        <v>0.59065999999999996</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -21410,8 +21410,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R112"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="S104" sqref="S104"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21772,7 +21772,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="5">
-        <v>0.5</v>
+        <v>0.72627699999999995</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -22052,7 +22052,7 @@
         <v>2</v>
       </c>
       <c r="F12" s="5">
-        <v>0.5</v>
+        <v>0.59431100000000003</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -27667,8 +27667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R70"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F19" sqref="F1:F1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -27917,7 +27917,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="5">
-        <v>0.5</v>
+        <v>0.76767399999999997</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -28085,7 +28085,7 @@
         <v>2</v>
       </c>
       <c r="F8" s="5">
-        <v>0.5</v>
+        <v>0.41120699999999999</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -31578,8 +31578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R70"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -31828,7 +31828,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="5">
-        <v>0.5</v>
+        <v>0.73153100000000004</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -31996,7 +31996,7 @@
         <v>2</v>
       </c>
       <c r="F8" s="5">
-        <v>0.5</v>
+        <v>0.388824</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -35489,8 +35489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R70"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G51" sqref="G51"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -35739,7 +35739,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="6">
-        <v>0.5</v>
+        <v>0.63721399999999995</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -35907,7 +35907,7 @@
         <v>2</v>
       </c>
       <c r="F8" s="6">
-        <v>0.5</v>
+        <v>0.51843399999999995</v>
       </c>
       <c r="G8">
         <v>0</v>
